--- a/数据空间对比.xlsx
+++ b/数据空间对比.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="空间对比" sheetId="1" r:id="rId1"/>
-    <sheet name="写时间对比" sheetId="2" r:id="rId2"/>
-    <sheet name="读时间对比" sheetId="3" r:id="rId3"/>
+    <sheet name="写性能对比" sheetId="2" r:id="rId2"/>
+    <sheet name="读性能对比" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>row count(millions)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,19 +26,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time of compression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time of raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>raw disk space</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>compression disk space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS of raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS of compression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tps of raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tps of compression</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +130,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2828243927136227"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.42622744190874445"/>
+          <c:h val="0.73444808982210552"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -145,120 +163,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>空间对比!$A$2:$A$18</c:f>
+              <c:f>空间对比!$A$4:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>空间对比!$B$2:$B$18</c:f>
+              <c:f>空间对比!$B$4:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>287</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>432</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>577</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>721</c:v>
+                  <c:v>1011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>866</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1011</c:v>
+                  <c:v>1431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1157</c:v>
+                  <c:v>2905</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1431</c:v>
+                  <c:v>3638</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2905</c:v>
+                  <c:v>4370</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3638</c:v>
+                  <c:v>5835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4370</c:v>
+                  <c:v>8766</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5835</c:v>
+                  <c:v>11696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8766</c:v>
+                  <c:v>14626</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11696</c:v>
+                  <c:v>23155</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14626</c:v>
+                  <c:v>30953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,120 +302,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>空间对比!$A$2:$A$18</c:f>
+              <c:f>空间对比!$A$4:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>空间对比!$C$2:$C$18</c:f>
+              <c:f>空间对比!$C$4:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>244</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>347</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>498</c:v>
+                  <c:v>838</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>668</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>838</c:v>
+                  <c:v>1736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,11 +430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126001152"/>
-        <c:axId val="125820224"/>
+        <c:axId val="47871040"/>
+        <c:axId val="47871616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126001152"/>
+        <c:axId val="47871040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,12 +468,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125820224"/>
+        <c:crossAx val="47871616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125820224"/>
+        <c:axId val="47871616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126001152"/>
+        <c:crossAx val="47871040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -537,11 +555,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>写时间对比!$B$1</c:f>
+              <c:f>写性能对比!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time of raw</c:v>
+                  <c:v>TPS of raw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -551,120 +569,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>写时间对比!$A$2:$A$18</c:f>
+              <c:f>写性能对比!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>写时间对比!$B$2:$B$18</c:f>
+              <c:f>写性能对比!$B$3:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>518672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1928</c:v>
+                  <c:v>553861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3611</c:v>
+                  <c:v>521014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5758</c:v>
+                  <c:v>580012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6888</c:v>
+                  <c:v>587884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8503</c:v>
+                  <c:v>625000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9600</c:v>
+                  <c:v>636363</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11038</c:v>
+                  <c:v>629326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12712</c:v>
+                  <c:v>634754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15754</c:v>
+                  <c:v>724285</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28100</c:v>
+                  <c:v>718865</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34776</c:v>
+                  <c:v>731707</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41462</c:v>
+                  <c:v>727114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55012</c:v>
+                  <c:v>681818</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88236</c:v>
+                  <c:v>714285</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112067</c:v>
+                  <c:v>729927</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137237</c:v>
+                  <c:v>539568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,11 +700,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>写时间对比!$C$1</c:f>
+              <c:f>写性能对比!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time of compression</c:v>
+                  <c:v>TPS of compression</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -690,120 +714,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>写时间对比!$A$2:$A$18</c:f>
+              <c:f>写性能对比!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>写时间对比!$C$2:$C$18</c:f>
+              <c:f>写性能对比!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>631313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1584</c:v>
+                  <c:v>635930</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2769</c:v>
+                  <c:v>600012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4052</c:v>
+                  <c:v>619674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7640</c:v>
+                  <c:v>576767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8880</c:v>
+                  <c:v>587089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9477</c:v>
+                  <c:v>551181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13530</c:v>
+                  <c:v>606067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13296</c:v>
+                  <c:v>616522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16297</c:v>
+                  <c:v>666708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30607</c:v>
+                  <c:v>694444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36009</c:v>
+                  <c:v>722289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41425</c:v>
+                  <c:v>719424</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55676</c:v>
+                  <c:v>778210</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77131</c:v>
+                  <c:v>800013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100677</c:v>
+                  <c:v>847457</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>118613</c:v>
+                  <c:v>887573</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>779119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,11 +848,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125813888"/>
-        <c:axId val="125813312"/>
+        <c:axId val="101498880"/>
+        <c:axId val="101499456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125813888"/>
+        <c:axId val="101498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,12 +886,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125813312"/>
+        <c:crossAx val="101499456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125813312"/>
+        <c:axId val="101499456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,12 +908,12 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>耗时</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>insert</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(ms)</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> TPS</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -896,7 +926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125813888"/>
+        <c:crossAx val="101498880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -943,11 +973,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>读时间对比!$B$1</c:f>
+              <c:f>读性能对比!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time of raw</c:v>
+                  <c:v>tps of raw</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -957,114 +987,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>读时间对比!$A$2:$A$17</c:f>
+              <c:f>读性能对比!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>读时间对比!$B$2:$B$17</c:f>
+              <c:f>读性能对比!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>24287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>20287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>20001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>1116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3112</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4257</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4992</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7005</c:v>
+                  <c:v>931</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8177</c:v>
+                  <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11963</c:v>
+                  <c:v>874</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11742</c:v>
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,11 +1112,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>读时间对比!$C$1</c:f>
+              <c:f>读性能对比!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time of compression</c:v>
+                  <c:v>tps of compression</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1090,114 +1126,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>读时间对比!$A$2:$A$17</c:f>
+              <c:f>读性能对比!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>读时间对比!$C$2:$C$17</c:f>
+              <c:f>读性能对比!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>20202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>428</c:v>
+                  <c:v>18018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>631</c:v>
+                  <c:v>16393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>849</c:v>
+                  <c:v>14981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1076</c:v>
+                  <c:v>14466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1219</c:v>
+                  <c:v>14732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1355</c:v>
+                  <c:v>14035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1441</c:v>
+                  <c:v>13400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1529</c:v>
+                  <c:v>9840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1343</c:v>
+                  <c:v>9962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1160</c:v>
+                  <c:v>9876</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1049</c:v>
+                  <c:v>9219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>934</c:v>
+                  <c:v>9754</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>784</c:v>
+                  <c:v>8854</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>694</c:v>
+                  <c:v>8210</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1015</c:v>
+                  <c:v>6657</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,11 +1254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="35811840"/>
-        <c:axId val="35808960"/>
+        <c:axId val="101501760"/>
+        <c:axId val="101502336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35811840"/>
+        <c:axId val="101501760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,8 +1274,12 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>记录总行数</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>row</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> count</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
@@ -1250,14 +1296,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35808960"/>
+        <c:crossAx val="101502336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35808960"/>
+        <c:axId val="101502336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1272,20 +1319,12 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>查询</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>query</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>1000</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>条记录的时间</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(ms)</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> TPS</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -1298,7 +1337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35811840"/>
+        <c:crossAx val="101501760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1324,16 +1363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1395,15 +1434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1712,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1730,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1921,6 +1960,28 @@
       </c>
       <c r="C18" s="1">
         <v>838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>150</v>
+      </c>
+      <c r="B19" s="1">
+        <v>23155</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>200</v>
+      </c>
+      <c r="B20" s="1">
+        <v>30953</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1736</v>
       </c>
     </row>
   </sheetData>
@@ -1933,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1951,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1928</v>
+        <v>518672</v>
       </c>
       <c r="C3">
-        <v>1584</v>
+        <v>631313</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,10 +2045,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3611</v>
+        <v>553861</v>
       </c>
       <c r="C4">
-        <v>2769</v>
+        <v>635930</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1995,10 +2056,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5758</v>
+        <v>521014</v>
       </c>
       <c r="C5">
-        <v>4052</v>
+        <v>600012</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,10 +2067,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6888</v>
+        <v>580012</v>
       </c>
       <c r="C6">
-        <v>7640</v>
+        <v>619674</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8503</v>
+        <v>587884</v>
       </c>
       <c r="C7">
-        <v>8880</v>
+        <v>576767</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,10 +2089,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9600</v>
+        <v>625000</v>
       </c>
       <c r="C8">
-        <v>9477</v>
+        <v>587089</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,10 +2100,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11038</v>
+        <v>636363</v>
       </c>
       <c r="C9">
-        <v>13530</v>
+        <v>551181</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,10 +2111,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12712</v>
+        <v>629326</v>
       </c>
       <c r="C10">
-        <v>13296</v>
+        <v>606067</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,21 +2122,21 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15754</v>
+        <v>634754</v>
       </c>
       <c r="C11">
-        <v>16297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>616522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>28100</v>
+        <v>724285</v>
       </c>
       <c r="C12">
-        <v>30607</v>
+        <v>666708</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2083,10 +2144,10 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>34776</v>
+        <v>718865</v>
       </c>
       <c r="C13">
-        <v>36009</v>
+        <v>694444</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,10 +2155,10 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>41462</v>
+        <v>731707</v>
       </c>
       <c r="C14">
-        <v>41425</v>
+        <v>722289</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,10 +2166,10 @@
         <v>40</v>
       </c>
       <c r="B15">
-        <v>55012</v>
+        <v>727114</v>
       </c>
       <c r="C15">
-        <v>55676</v>
+        <v>719424</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,10 +2177,10 @@
         <v>60</v>
       </c>
       <c r="B16">
-        <v>88236</v>
+        <v>681818</v>
       </c>
       <c r="C16">
-        <v>77131</v>
+        <v>778210</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2127,10 +2188,10 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>112067</v>
+        <v>714285</v>
       </c>
       <c r="C17">
-        <v>100677</v>
+        <v>800013</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,10 +2199,32 @@
         <v>100</v>
       </c>
       <c r="B18">
-        <v>137237</v>
+        <v>729927</v>
       </c>
       <c r="C18">
-        <v>118613</v>
+        <v>847457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>150</v>
+      </c>
+      <c r="B19">
+        <v>539568</v>
+      </c>
+      <c r="C19">
+        <v>887573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>350877</v>
+      </c>
+      <c r="C20">
+        <v>779119</v>
       </c>
     </row>
   </sheetData>
@@ -2153,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2171,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2182,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>28052</v>
       </c>
       <c r="C2">
-        <v>198</v>
+        <v>28571</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,10 +2276,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>24287</v>
       </c>
       <c r="C3">
-        <v>428</v>
+        <v>20202</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2204,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>20287</v>
       </c>
       <c r="C4">
-        <v>631</v>
+        <v>18018</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,10 +2298,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>20001</v>
       </c>
       <c r="C5">
-        <v>849</v>
+        <v>16393</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>1116</v>
       </c>
       <c r="C6">
-        <v>1076</v>
+        <v>14981</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,10 +2320,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>609</v>
       </c>
       <c r="C7">
-        <v>1219</v>
+        <v>14466</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,10 +2331,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="C8">
-        <v>1355</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,10 +2342,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>907</v>
       </c>
       <c r="C9">
-        <v>1441</v>
+        <v>14035</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2270,10 +2353,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>975</v>
       </c>
       <c r="C10">
-        <v>1529</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,10 +2364,10 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>3112</v>
+        <v>900</v>
       </c>
       <c r="C11">
-        <v>1343</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,10 +2375,10 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>4257</v>
+        <v>870</v>
       </c>
       <c r="C12">
-        <v>1160</v>
+        <v>9962</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2303,10 +2386,10 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>4992</v>
+        <v>980</v>
       </c>
       <c r="C13">
-        <v>1049</v>
+        <v>9876</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2314,10 +2397,10 @@
         <v>40</v>
       </c>
       <c r="B14">
-        <v>7005</v>
+        <v>870</v>
       </c>
       <c r="C14">
-        <v>934</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2325,10 +2408,10 @@
         <v>60</v>
       </c>
       <c r="B15">
-        <v>8177</v>
+        <v>931</v>
       </c>
       <c r="C15">
-        <v>784</v>
+        <v>9754</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,10 +2419,10 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>11963</v>
+        <v>925</v>
       </c>
       <c r="C16">
-        <v>694</v>
+        <v>8854</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,10 +2430,32 @@
         <v>100</v>
       </c>
       <c r="B17">
-        <v>11742</v>
+        <v>874</v>
       </c>
       <c r="C17">
-        <v>1015</v>
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>960</v>
+      </c>
+      <c r="C18">
+        <v>6657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>197</v>
+      </c>
+      <c r="C19">
+        <v>1580</v>
       </c>
     </row>
   </sheetData>

--- a/数据空间对比.xlsx
+++ b/数据空间对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="22884" windowHeight="8424" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="22884" windowHeight="8424"/>
   </bookViews>
   <sheets>
     <sheet name="空间对比" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>raw disk space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compression disk space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TPS of raw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,6 +39,14 @@
   </si>
   <si>
     <t>tps of compression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compression size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +153,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>raw disk space</c:v>
+                  <c:v>raw size</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -292,7 +292,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>compression disk space</c:v>
+                  <c:v>compression size</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -430,11 +430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47871040"/>
-        <c:axId val="47871616"/>
+        <c:axId val="47361984"/>
+        <c:axId val="47362560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47871040"/>
+        <c:axId val="47361984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,12 +468,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47871616"/>
+        <c:crossAx val="47362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47871616"/>
+        <c:axId val="47362560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,12 +490,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>磁盘空间</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(MB)</a:t>
+                  <a:t>Size(MB)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -508,7 +504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47871040"/>
+        <c:crossAx val="47361984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -848,11 +844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101498880"/>
-        <c:axId val="101499456"/>
+        <c:axId val="47364864"/>
+        <c:axId val="47365440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101498880"/>
+        <c:axId val="47364864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,19 +875,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101499456"/>
+        <c:crossAx val="47365440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101499456"/>
+        <c:axId val="47365440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,21 +914,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101498880"/>
+        <c:crossAx val="47364864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1052,25 +1045,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>24287</c:v>
+                  <c:v>250287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20287</c:v>
+                  <c:v>242870</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20001</c:v>
+                  <c:v>240011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1116</c:v>
+                  <c:v>179768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>609</c:v>
+                  <c:v>169876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>980</c:v>
+                  <c:v>100987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>907</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>975</c:v>
@@ -1082,22 +1075,22 @@
                   <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>980</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>931</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>925</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>874</c:v>
+                  <c:v>774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>960</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>197</c:v>
@@ -1191,34 +1184,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>20202</c:v>
+                  <c:v>118020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18018</c:v>
+                  <c:v>116180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16393</c:v>
+                  <c:v>103930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14981</c:v>
+                  <c:v>80085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14466</c:v>
+                  <c:v>74660</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14732</c:v>
+                  <c:v>57320</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14035</c:v>
+                  <c:v>34035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13400</c:v>
+                  <c:v>23400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9840</c:v>
+                  <c:v>12840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9962</c:v>
+                  <c:v>11062</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9876</c:v>
@@ -1254,11 +1247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101501760"/>
-        <c:axId val="101502336"/>
+        <c:axId val="130148032"/>
+        <c:axId val="130148608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101501760"/>
+        <c:axId val="130148032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,15 +1289,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101502336"/>
+        <c:crossAx val="130148608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101502336"/>
+        <c:axId val="130148608"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1324,7 +1318,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> TPS</a:t>
+                  <a:t>  TPS</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -1337,7 +1331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101501760"/>
+        <c:crossAx val="130148032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1753,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1769,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2238,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2254,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28052</v>
+        <v>281502</v>
       </c>
       <c r="C2">
-        <v>28571</v>
+        <v>125710</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,10 +2270,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24287</v>
+        <v>250287</v>
       </c>
       <c r="C3">
-        <v>20202</v>
+        <v>118020</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,10 +2281,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20287</v>
+        <v>242870</v>
       </c>
       <c r="C4">
-        <v>18018</v>
+        <v>116180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,10 +2292,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20001</v>
+        <v>240011</v>
       </c>
       <c r="C5">
-        <v>16393</v>
+        <v>103930</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,10 +2303,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1116</v>
+        <v>179768</v>
       </c>
       <c r="C6">
-        <v>14981</v>
+        <v>80085</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,10 +2314,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>609</v>
+        <v>169876</v>
       </c>
       <c r="C7">
-        <v>14466</v>
+        <v>74660</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2331,10 +2325,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>980</v>
+        <v>100987</v>
       </c>
       <c r="C8">
-        <v>14732</v>
+        <v>57320</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>907</v>
+        <v>2003</v>
       </c>
       <c r="C9">
-        <v>14035</v>
+        <v>34035</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,7 +2350,7 @@
         <v>975</v>
       </c>
       <c r="C10">
-        <v>13400</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,7 +2361,7 @@
         <v>900</v>
       </c>
       <c r="C11">
-        <v>9840</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,7 +2372,7 @@
         <v>870</v>
       </c>
       <c r="C12">
-        <v>9962</v>
+        <v>11062</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2380,7 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>980</v>
+        <v>850</v>
       </c>
       <c r="C13">
         <v>9876</v>
@@ -2408,7 +2402,7 @@
         <v>60</v>
       </c>
       <c r="B15">
-        <v>931</v>
+        <v>831</v>
       </c>
       <c r="C15">
         <v>9754</v>
@@ -2419,7 +2413,7 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="C16">
         <v>8854</v>
@@ -2430,7 +2424,7 @@
         <v>100</v>
       </c>
       <c r="B17">
-        <v>874</v>
+        <v>774</v>
       </c>
       <c r="C17">
         <v>8210</v>
@@ -2441,7 +2435,7 @@
         <v>150</v>
       </c>
       <c r="B18">
-        <v>960</v>
+        <v>560</v>
       </c>
       <c r="C18">
         <v>6657</v>

--- a/数据空间对比.xlsx
+++ b/数据空间对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="22884" windowHeight="8424"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="8352" windowHeight="4752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="空间对比" sheetId="1" r:id="rId1"/>
@@ -430,11 +430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47361984"/>
-        <c:axId val="47362560"/>
+        <c:axId val="35352512"/>
+        <c:axId val="35353088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47361984"/>
+        <c:axId val="35352512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,12 +468,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47362560"/>
+        <c:crossAx val="35353088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47362560"/>
+        <c:axId val="35353088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47361984"/>
+        <c:crossAx val="35352512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -844,11 +844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47364864"/>
-        <c:axId val="47365440"/>
+        <c:axId val="35355392"/>
+        <c:axId val="35355968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47364864"/>
+        <c:axId val="35355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,18 +875,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47365440"/>
+        <c:crossAx val="35355968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47365440"/>
+        <c:axId val="35355968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,19 +915,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47364864"/>
+        <c:crossAx val="35355392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1247,11 +1250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130148032"/>
-        <c:axId val="130148608"/>
+        <c:axId val="99968704"/>
+        <c:axId val="99969280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130148032"/>
+        <c:axId val="99968704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,12 +1292,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130148608"/>
+        <c:crossAx val="99969280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130148608"/>
+        <c:axId val="99969280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1331,7 +1334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130148032"/>
+        <c:crossAx val="99968704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1433,8 +1436,8 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -1747,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -2232,7 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>

--- a/数据空间对比.xlsx
+++ b/数据空间对比.xlsx
@@ -430,11 +430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="35352512"/>
-        <c:axId val="35353088"/>
+        <c:axId val="35958720"/>
+        <c:axId val="35959296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35352512"/>
+        <c:axId val="35958720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,19 +461,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35353088"/>
+        <c:crossAx val="35959296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35353088"/>
+        <c:axId val="35959296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,21 +496,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35352512"/>
+        <c:crossAx val="35958720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -844,11 +841,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="35355392"/>
-        <c:axId val="35355968"/>
+        <c:axId val="35961600"/>
+        <c:axId val="35962176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35355392"/>
+        <c:axId val="35961600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,12 +879,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35355968"/>
+        <c:crossAx val="35962176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35355968"/>
+        <c:axId val="35962176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35355392"/>
+        <c:crossAx val="35961600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1063,37 +1060,37 @@
                   <c:v>169876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100987</c:v>
+                  <c:v>80987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2003</c:v>
+                  <c:v>29003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>975</c:v>
+                  <c:v>7875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>870</c:v>
+                  <c:v>4870</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>850</c:v>
+                  <c:v>4250</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>870</c:v>
+                  <c:v>3870</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>831</c:v>
+                  <c:v>2831</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>825</c:v>
+                  <c:v>2225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>774</c:v>
+                  <c:v>1774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>560</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>197</c:v>
@@ -1196,46 +1193,46 @@
                   <c:v>103930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80085</c:v>
+                  <c:v>98085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74660</c:v>
+                  <c:v>92660</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57320</c:v>
+                  <c:v>87320</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34035</c:v>
+                  <c:v>84035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23400</c:v>
+                  <c:v>83400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12840</c:v>
+                  <c:v>72840</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11062</c:v>
+                  <c:v>61062</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9876</c:v>
+                  <c:v>55876</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9219</c:v>
+                  <c:v>49219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9754</c:v>
+                  <c:v>39754</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8854</c:v>
+                  <c:v>34854</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8210</c:v>
+                  <c:v>18210</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6657</c:v>
+                  <c:v>12657</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1580</c:v>
+                  <c:v>2580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,11 +1247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99968704"/>
-        <c:axId val="99969280"/>
+        <c:axId val="126035648"/>
+        <c:axId val="126036224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99968704"/>
+        <c:axId val="126035648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,12 +1289,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99969280"/>
+        <c:crossAx val="126036224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99969280"/>
+        <c:axId val="126036224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1334,7 +1331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99968704"/>
+        <c:crossAx val="126035648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,7 +1991,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2233,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2309,7 +2306,7 @@
         <v>179768</v>
       </c>
       <c r="C6">
-        <v>80085</v>
+        <v>98085</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,7 +2317,7 @@
         <v>169876</v>
       </c>
       <c r="C7">
-        <v>74660</v>
+        <v>92660</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,10 +2325,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100987</v>
+        <v>80987</v>
       </c>
       <c r="C8">
-        <v>57320</v>
+        <v>87320</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2339,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2003</v>
+        <v>29003</v>
       </c>
       <c r="C9">
-        <v>34035</v>
+        <v>84035</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>975</v>
+        <v>7875</v>
       </c>
       <c r="C10">
-        <v>23400</v>
+        <v>83400</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2361,10 +2358,10 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>900</v>
+        <v>5900</v>
       </c>
       <c r="C11">
-        <v>12840</v>
+        <v>72840</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,10 +2369,10 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>870</v>
+        <v>4870</v>
       </c>
       <c r="C12">
-        <v>11062</v>
+        <v>61062</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2383,10 +2380,10 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>850</v>
+        <v>4250</v>
       </c>
       <c r="C13">
-        <v>9876</v>
+        <v>55876</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,10 +2391,10 @@
         <v>40</v>
       </c>
       <c r="B14">
-        <v>870</v>
+        <v>3870</v>
       </c>
       <c r="C14">
-        <v>9219</v>
+        <v>49219</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,10 +2402,10 @@
         <v>60</v>
       </c>
       <c r="B15">
-        <v>831</v>
+        <v>2831</v>
       </c>
       <c r="C15">
-        <v>9754</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2416,10 +2413,10 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>825</v>
+        <v>2225</v>
       </c>
       <c r="C16">
-        <v>8854</v>
+        <v>34854</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,10 +2424,10 @@
         <v>100</v>
       </c>
       <c r="B17">
-        <v>774</v>
+        <v>1774</v>
       </c>
       <c r="C17">
-        <v>8210</v>
+        <v>18210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,10 +2435,10 @@
         <v>150</v>
       </c>
       <c r="B18">
-        <v>560</v>
+        <v>1560</v>
       </c>
       <c r="C18">
-        <v>6657</v>
+        <v>12657</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,7 +2449,7 @@
         <v>197</v>
       </c>
       <c r="C19">
-        <v>1580</v>
+        <v>2580</v>
       </c>
     </row>
   </sheetData>
